--- a/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
+++ b/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
   <si>
     <t>First Product Name</t>
   </si>

--- a/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
+++ b/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
   <si>
     <t>First Product Name</t>
   </si>

--- a/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
+++ b/target/test-classes/com/SauceDemo/TestData/SauceDemo_outputdata.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="6">
   <si>
     <t>First Product Name</t>
   </si>
